--- a/xlsx/東歐_intext.xlsx
+++ b/xlsx/東歐_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
   <si>
     <t>東歐</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地圖</t>
   </si>
   <si>
-    <t>政策_政策_政治_東歐</t>
+    <t>体育运动_体育运动_苏联_東歐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1532,10 +1532,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1610,18 +1634,18 @@
     <t>列支敦斯登</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
     <t>爱沙尼亚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
@@ -1682,18 +1706,18 @@
     <t>賽普勒斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1712,10 +1736,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1776,6 +1800,12 @@
   </si>
   <si>
     <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2175,7 +2205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2316,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -7594,7 +7624,7 @@
         <v>366</v>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -9885,7 +9915,7 @@
         <v>514</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -9943,7 +9973,7 @@
         <v>518</v>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10030,7 +10060,7 @@
         <v>524</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10059,7 +10089,7 @@
         <v>526</v>
       </c>
       <c r="G272" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10088,7 +10118,7 @@
         <v>528</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10140,10 +10170,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>375</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>376</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10169,13 +10199,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10198,13 +10228,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>273</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>274</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -10227,13 +10257,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10256,10 +10286,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10285,10 +10315,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>229</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>230</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10314,13 +10344,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10343,10 +10373,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>273</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>274</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10372,13 +10402,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>209</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>210</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10401,13 +10431,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10430,13 +10460,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -10459,10 +10489,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10488,13 +10518,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -10517,10 +10547,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10546,13 +10576,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10575,13 +10605,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -10604,13 +10634,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -10633,13 +10663,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10662,10 +10692,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10691,10 +10721,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10720,10 +10750,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10749,10 +10779,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10778,10 +10808,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10807,10 +10837,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10836,10 +10866,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10865,10 +10895,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10894,10 +10924,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10923,10 +10953,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10952,10 +10982,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10981,10 +11011,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11010,10 +11040,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11039,13 +11069,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>419</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>420</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11132,7 +11162,7 @@
         <v>594</v>
       </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11161,7 +11191,7 @@
         <v>596</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11213,13 +11243,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>419</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11242,13 +11272,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11274,15 +11304,189 @@
         <v>601</v>
       </c>
       <c r="F314" t="s">
+        <v>602</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="s">
+        <v>4</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>314</v>
+      </c>
+      <c r="E315" t="s">
         <v>603</v>
       </c>
-      <c r="G314" t="n">
-        <v>1</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" t="n">
+      <c r="F315" t="s">
+        <v>604</v>
+      </c>
+      <c r="G315" t="n">
+        <v>3</v>
+      </c>
+      <c r="H315" t="s">
+        <v>4</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>315</v>
+      </c>
+      <c r="E316" t="s">
+        <v>605</v>
+      </c>
+      <c r="F316" t="s">
+        <v>606</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="s">
+        <v>4</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>316</v>
+      </c>
+      <c r="E317" t="s">
+        <v>607</v>
+      </c>
+      <c r="F317" t="s">
+        <v>608</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1</v>
+      </c>
+      <c r="H317" t="s">
+        <v>4</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>317</v>
+      </c>
+      <c r="E318" t="s">
+        <v>609</v>
+      </c>
+      <c r="F318" t="s">
+        <v>610</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1</v>
+      </c>
+      <c r="H318" t="s">
+        <v>4</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>318</v>
+      </c>
+      <c r="E319" t="s">
+        <v>611</v>
+      </c>
+      <c r="F319" t="s">
+        <v>612</v>
+      </c>
+      <c r="G319" t="n">
+        <v>6</v>
+      </c>
+      <c r="H319" t="s">
+        <v>4</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>319</v>
+      </c>
+      <c r="E320" t="s">
+        <v>611</v>
+      </c>
+      <c r="F320" t="s">
+        <v>613</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+      <c r="H320" t="s">
+        <v>4</v>
+      </c>
+      <c r="I320" t="n">
         <v>3</v>
       </c>
     </row>
